--- a/biology/Zoologie/Agatrix/Agatrix.xlsx
+++ b/biology/Zoologie/Agatrix/Agatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agatrix est un genre de mollusques gastéropodes de la famille des Cancellariidae.
 </t>
@@ -511,20 +523,22 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 octobre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 octobre 2018) :
 Agatrix agassizii W. H. Dall, 1889
 Agatrix epomis W. P. Woodring, 1928
 Agatrix strongi Shasky, 1961
 Agatrix vossi Petit, 1976
-Selon Paleobiology Database                   (16 octobre 2018)[4] :
+Selon Paleobiology Database                   (16 octobre 2018) :
 Agatrix agassizii
 Agatrix beatrix
 Agatrix epomis
 Agatrix losquemadica
 Agatrix strongi
-Selon World Register of Marine Species                               (16 octobre 2018)[5] :
+Selon World Register of Marine Species                               (16 octobre 2018) :
 Agatrix agassizii (Dall, 1889)
 Agatrix epomis (Woodring, 1928)
 Agatrix petiti Lozouet, 2015 †
